--- a/EvenStarFarm.xlsx
+++ b/EvenStarFarm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Surface User\Desktop\Analytics_Edge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Surface User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55E9621-9EA2-4F3F-8146-0EFF552EA843}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225E1C70-CCFD-491D-84DF-C57EB36AC610}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="17717" windowHeight="9451" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -277,7 +277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -583,12 +583,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -682,15 +750,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -1033,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
@@ -1481,21 +1568,21 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="47"/>
     </row>
     <row r="36" spans="1:17" ht="89.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
@@ -1505,43 +1592,43 @@
       <c r="D36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L36" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="N36" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="O36" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="P36" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="Q36" s="50" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1555,41 +1642,42 @@
         <f>SUMPRODUCT(C26:C33,D6:D13) / 400</f>
         <v>65.88</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="41">
         <v>49956.39</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="42">
         <v>50181.760000000002</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="42">
         <f>F37-E37</f>
         <v>225.37000000000262</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="J37" s="36">
+      <c r="I37" s="43"/>
+      <c r="J37" s="42">
         <v>50338.37</v>
       </c>
-      <c r="K37" s="36">
+      <c r="K37" s="42">
         <v>50287.88</v>
       </c>
-      <c r="L37" s="36">
+      <c r="L37" s="42">
         <v>50140.87</v>
       </c>
-      <c r="M37" s="36">
+      <c r="M37" s="42">
         <v>50287.88</v>
       </c>
-      <c r="N37" s="36">
+      <c r="N37" s="42">
         <v>50177.38</v>
       </c>
-      <c r="O37" s="36">
+      <c r="O37" s="42">
         <v>50190.37</v>
       </c>
-      <c r="P37" s="36">
+      <c r="P37" s="42">
         <v>50298.37</v>
       </c>
-      <c r="Q37" s="36">
+      <c r="Q37" s="44">
         <v>50298.37</v>
       </c>
     </row>
@@ -1603,21 +1691,21 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="39" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="15.95" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="D41" s="38" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1795,31 +1883,31 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
